--- a/natmiOut/OldD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -531,34 +531,34 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.480627799892845</v>
+        <v>0.813634</v>
       </c>
       <c r="H2">
-        <v>0.480627799892845</v>
+        <v>2.440902</v>
       </c>
       <c r="I2">
-        <v>0.3047114800768606</v>
+        <v>0.4058779337539379</v>
       </c>
       <c r="J2">
-        <v>0.3047114800768606</v>
+        <v>0.405877933753938</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0249156097435765</v>
+        <v>0.05883533333333333</v>
       </c>
       <c r="N2">
-        <v>0.0249156097435765</v>
+        <v>0.176506</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01197513469404391</v>
+        <v>0.04787042760133333</v>
       </c>
       <c r="R2">
-        <v>0.01197513469404391</v>
+        <v>0.430833848412</v>
       </c>
       <c r="S2">
-        <v>0.3047114800768606</v>
+        <v>0.4058779337539379</v>
       </c>
       <c r="T2">
-        <v>0.3047114800768606</v>
+        <v>0.405877933753938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,34 +593,34 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.973561081777769</v>
+        <v>1.009547</v>
       </c>
       <c r="H3">
-        <v>0.973561081777769</v>
+        <v>3.028641</v>
       </c>
       <c r="I3">
-        <v>0.6172244681640807</v>
+        <v>0.5036083182210759</v>
       </c>
       <c r="J3">
-        <v>0.6172244681640807</v>
+        <v>0.5036083182210759</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0249156097435765</v>
+        <v>0.05883533333333333</v>
       </c>
       <c r="N3">
-        <v>0.0249156097435765</v>
+        <v>0.176506</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.02425686797510906</v>
+        <v>0.05939703426066668</v>
       </c>
       <c r="R3">
-        <v>0.02425686797510906</v>
+        <v>0.534573308346</v>
       </c>
       <c r="S3">
-        <v>0.6172244681640807</v>
+        <v>0.5036083182210759</v>
       </c>
       <c r="T3">
-        <v>0.6172244681640807</v>
+        <v>0.5036083182210759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,34 +655,34 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0210349487126152</v>
+        <v>0.067537</v>
       </c>
       <c r="H4">
-        <v>0.0210349487126152</v>
+        <v>0.202611</v>
       </c>
       <c r="I4">
-        <v>0.01333587103573875</v>
+        <v>0.03369055129448831</v>
       </c>
       <c r="J4">
-        <v>0.01333587103573875</v>
+        <v>0.03369055129448831</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0249156097435765</v>
+        <v>0.05883533333333333</v>
       </c>
       <c r="N4">
-        <v>0.0249156097435765</v>
+        <v>0.176506</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0005240985730996673</v>
+        <v>0.003973561907333333</v>
       </c>
       <c r="R4">
-        <v>0.0005240985730996673</v>
+        <v>0.035762057166</v>
       </c>
       <c r="S4">
-        <v>0.01333587103573875</v>
+        <v>0.03369055129448831</v>
       </c>
       <c r="T4">
-        <v>0.01333587103573875</v>
+        <v>0.03369055129448831</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,34 +717,34 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.102097115226077</v>
+        <v>0.1139093333333333</v>
       </c>
       <c r="H5">
-        <v>0.102097115226077</v>
+        <v>0.341728</v>
       </c>
       <c r="I5">
-        <v>0.0647281807233199</v>
+        <v>0.05682319673049787</v>
       </c>
       <c r="J5">
-        <v>0.0647281807233199</v>
+        <v>0.05682319673049788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0249156097435765</v>
+        <v>0.05883533333333333</v>
       </c>
       <c r="N5">
-        <v>0.0249156097435765</v>
+        <v>0.176506</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.002543811878917897</v>
+        <v>0.006701893596444445</v>
       </c>
       <c r="R5">
-        <v>0.002543811878917897</v>
+        <v>0.06031704236800001</v>
       </c>
       <c r="S5">
-        <v>0.0647281807233199</v>
+        <v>0.05682319673049787</v>
       </c>
       <c r="T5">
-        <v>0.0647281807233199</v>
+        <v>0.05682319673049788</v>
       </c>
     </row>
   </sheetData>
